--- a/Data/Transitions/18981952Translation.xlsx
+++ b/Data/Transitions/18981952Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="871">
   <si>
     <t>id</t>
   </si>
@@ -28,19 +28,19 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9694199207584238}</t>
+    <t>{5.0: 0.9694640710996556}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -49,16 +49,16 @@
     <t>{9.0: 1.0, 208.0: 0.00029175784099197665}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
-  </si>
-  <si>
-    <t>{11.0: 1.0, 73.0: 0.00042098229282040413}</t>
+    <t>{10.0: 0.9895951735594999}</t>
+  </si>
+  <si>
+    <t>{11.0: 1.0, 73.0: 0.0004209803034445382}</t>
   </si>
   <si>
     <t>{12.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.968121687448885, 178.0: 0.00016215071483358378, 623.0: 0.0007617893503810506, 696.0: 0.002913039036710639, 492.0: 1.802917100041169e-05}</t>
+    <t>{14.0: 0.9681719108492928, 178.0: 0.0001631303974672942, 623.0: 0.0007637695367658331, 696.0: 0.0029920449207345716, 492.0: 1.840905823676253e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -67,7 +67,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.9739444451087542}</t>
+    <t>{17.0: 0.9740081016084345}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -79,10 +79,10 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
-  </si>
-  <si>
-    <t>{34.0: 1.0, 78.0: 0.13866427073974244}</t>
+    <t>{679.0: 0.4935636856368564}</t>
+  </si>
+  <si>
+    <t>{34.0: 1.0, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{35.0: 1.0}</t>
@@ -94,22 +94,22 @@
     <t>{43.0: 1.0}</t>
   </si>
   <si>
-    <t>{44.0: 0.9798798798798799}</t>
+    <t>{44.0: 0.9800980246546859}</t>
   </si>
   <si>
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.020756642445889786, 246.0: 0.014982298491319618, 681.0: 0.00913115225914661, 741.0: 0.008188046150876902, 789.0: 0.0030875536088257162}</t>
+    <t>{46.0: 1.0, 90.0: 0.020778748827499333, 246.0: 0.01497283340617295, 681.0: 0.00913599106149541, 741.0: 0.00819605054545509, 789.0: 0.0030938279200240066}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
-  </si>
-  <si>
-    <t>{49.0: 0.8933886722844087}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
+  </si>
+  <si>
+    <t>{49.0: 0.8868973492261164}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -124,7 +124,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -136,37 +136,37 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
-  </si>
-  <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{311.0: 0.023413950227830355}</t>
+  </si>
+  <si>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.8429468776573892, 888.0: 0.00464423766502221}</t>
+    <t>{73.0: 0.8429428942637804, 888.0: 0.004644267467867127}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.04385213002977653}</t>
+    <t>{75.0: 1.0, 917.0: 0.044165655930525655}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
-  </si>
-  <si>
-    <t>{78.0: 0.8613357292602576}</t>
-  </si>
-  <si>
-    <t>{79.0: 0.9993480032599837}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7809903028418587, 172.0: 0.0016461579677927844}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
+  </si>
+  <si>
+    <t>{78.0: 0.8719756670814324}</t>
+  </si>
+  <si>
+    <t>{79.0: 0.9993761696818465}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7790212317198133, 172.0: 0.0016363927947164638}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -178,10 +178,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.994052232029912, 178.0: 0.008741636293170308, 14.0: 0.00027033054943072243, 492.0: 0.00261449808873439, 97.0: 1.3291445142580957e-05, 696.0: 3.4539568464333804e-06}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.35926979377591667, 165.0: 0.0002494072058394017, 433.0: 5.3662174179520615e-05}</t>
+    <t>{85.0: 0.9940170594048064, 178.0: 0.008787936260567477, 14.0: 0.00027132074902629517, 492.0: 0.002614263529252245, 97.0: 1.3250883392226149e-05, 696.0: 3.3556181386114524e-06}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.3575941314214227, 165.0: 0.0002502066864647037, 433.0: 5.3992462724434386e-05}</t>
   </si>
   <si>
     <t>{88.0: 0.9985242575170633, 89.0: 0.2946247464503043}</t>
@@ -190,13 +190,13 @@
     <t>{89.0: 0.7053752535496958, 88.0: 0.0014757424829367274}</t>
   </si>
   <si>
-    <t>{90.0: 0.9458762626498309}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9615284042749032, 92.0: 0.10406272321566451}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.8959371160388855, 91.0: 0.03813849167117715}</t>
+    <t>{90.0: 0.9458544255565603}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9615324172454731, 92.0: 0.1034156444923224}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8965842063144022, 91.0: 0.038138650843432466}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,10 +208,10 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9951227788408464}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.3186909432682987}</t>
+    <t>{97.0: 0.9951567948489588}</t>
+  </si>
+  <si>
+    <t>{98.0: 0.3217218663429814}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -232,16 +232,16 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: -0.0030689706570926445, 86.0: -0.0013551038561849204}</t>
-  </si>
-  <si>
-    <t>{543.0: -0.00205995733931015, 86.0: -0.000909574070910169, 505.0: 0.009305654974946313}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9907457807451502, 144.0: 0.00813773778970335}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.8367273519846401}</t>
+    <t>{543.0: 0.15081441977339646, 86.0: 0.06662308454597138}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.23067153187143186, 86.0: 0.10190039515657803, 505.0: 0.009305654974946313}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9907507203229236, 144.0: 0.008137595844409649}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.8366630142044656}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
@@ -253,19 +253,19 @@
     <t>{141.0: 0.6758285413496921, 762.0: 0.6758285413496921}</t>
   </si>
   <si>
-    <t>{142.0: 0.6824977236609803, 44.0: 0.02012012012012012}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.04625027587587877}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9097610131785987}</t>
+    <t>{142.0: 0.6824606825091657, 44.0: 0.019901975345314123}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.04275579021694319}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9132382007231626}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
+    <t>{146.0: 0.7349950571953114}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -280,10 +280,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528, 975.0: 0.0008214690645289342}</t>
-  </si>
-  <si>
-    <t>{185.0: 0.9013829625635663, 700.0: 0.6933559187147691, 173.0: 0.06502310726042908, 404.0: 0.00014418315752371007}</t>
+    <t>{152.0: 0.9995732878173672, 975.0: 0.0008214403552842996}</t>
+  </si>
+  <si>
+    <t>{185.0: 0.9013829625635663, 700.0: 0.6933559187147691, 173.0: 0.06502310726042908, 404.0: 0.00014538334917061371}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -292,10 +292,10 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922, 914.0: 0.044090464810719994, 110.0: 0.002611402393722663}</t>
-  </si>
-  <si>
-    <t>{166.0: 1.0, 893.0: 0.002105263157894737}</t>
+    <t>{165.0: 0.9614104302798668, 914.0: 0.044090464810719994, 110.0: 0.0026124314199263577}</t>
+  </si>
+  <si>
+    <t>{166.0: 1.0, 893.0: 0.002254791431792559}</t>
   </si>
   <si>
     <t>{167.0: 1.0}</t>
@@ -307,16 +307,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.67979419939276}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.7835236683980632, 404.0: 0.0017373964620257928, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873, 534.0: 0.04943118981305118}</t>
+    <t>{171.0: 0.682656031006749}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.7835236683980632, 404.0: 0.0017518586832511837, 185.0: 0.022969604451426786, 700.0: 0.0003820790965011307}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835, 534.0: 0.04700343385884175}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,64 +328,64 @@
     <t>{562.0: 0.3589476967869398}</t>
   </si>
   <si>
-    <t>{178.0: 0.9759748680013169, 14.0: 0.030181514472696975, 681.0: 0.010227277857796856}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4140339596940813, 410.0: 0.010166137119917876, 277.0: 7.057845927259817e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5422188141189332, 410.0: 0.014395686970100978, 277.0: 9.99421308738507e-05}</t>
+    <t>{178.0: 0.9759282428739054, 14.0: 0.030131031222951257, 681.0: 0.010311688422776206}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.41499950355670423, 410.0: 0.01007542775090648, 277.0: 7.083620274894988e-05}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5482699271655748, 410.0: 0.014277015024410008, 277.0: 0.00010037584070094911}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6468848045152845, 277.0: 0.0016320956571106234, 180.0: 3.2668736665918865e-05}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.9917785638508975, 171.0: 0.05825997917972308, 593.0: 0.047752324941765505, 778.0: 0.0005930931548929425}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.45766386834936346, 543.0: 0.005331194363014698}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.153839044522277, 917.0: 0.029035515377299318}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2750805601777768, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.7663743002352303}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.7106715641844588, 857.0: 0.004858248839482561}</t>
+    <t>{182.0: 0.6458285932967373, 277.0: 0.001633178723995504, 180.0: 5.360608468307691e-05}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9917621971834255, 171.0: 0.058233101178436504, 593.0: 0.04763664141780031, 778.0: 0.0005775144643994738}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.3251826980051353, 543.0: 0.003789048017917039}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7185751362926827, 917.0: 0.01808528564746644}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.2751012314568136, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.7759206783389275}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.7106600987110239, 857.0: 0.004856450905275958}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
-  </si>
-  <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
+  </si>
+  <si>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.008357040088911935}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.008365967005621318}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -394,31 +394,31 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{265.0: 0.18569618736466076}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{265.0: 0.13819736127734558}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{480.0: 0.36969409532843256}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563, 999.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144, 999.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.048680958673208055}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
-  </si>
-  <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{221.0: 0.29241719930273097, 999.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269, 999.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.048910714816067735}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
+  </si>
+  <si>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,10 +427,10 @@
     <t>{226.0: 0.6876808253852025}</t>
   </si>
   <si>
-    <t>{227.0: 0.6609982656151687, 297.0: 4.127455836222553e-05, 686.0: 6.520786798273537e-05}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6206265284284248, 297.0: 4.15092773234818e-05, 686.0: 6.532095759883434e-05}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10661132771559133}</t>
+    <t>{49.0: 0.11310265077388365}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,16 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{102.0: 0.1815575728619207, 253.0: 0.002564069085859641}</t>
+    <t>{102.0: 0.1815575728619207, 253.0: 0.0025205205174975535}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8195167255485202}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18048327445147982}</t>
+    <t>{240.0: 1.0, 241.0: 0.8103169425483226}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.1896830574516774}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -475,10 +478,10 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.4717851781842442, 543.0: 0.005495689427179633}</t>
-  </si>
-  <si>
-    <t>{246.0: 0.6411979451724658}</t>
+    <t>{858.0: 0.3352162749358088, 543.0: 0.0039059598493736635}</t>
+  </si>
+  <si>
+    <t>{246.0: 0.6414567650874317}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -487,19 +490,19 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.7306727153256398}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.29130547110880456, 144.0: 0.010139449231353, 303.0: 0.0008056245482620409}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.72999062888997}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2911206790471352, 144.0: 0.010139319304448152, 303.0: 0.0008070593203871737}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9957911940720351}</t>
+    <t>{253.0: 0.9958347426403972}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,28 +526,28 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 1.0, 595.0: 0.0015534990140280514}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.06571137480117686, 897.0: 0.0011207192279457136}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.04639473584516582, 887.0: 0.17626442298656703}</t>
-  </si>
-  <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 1.0, 595.0: 0.001570356167693723}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.06158198808299092, 897.0: 0.0010388882468031276}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.04700377208796266, 887.0: 0.17737532539717435}</t>
+  </si>
+  <si>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -553,13 +556,13 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.39523576063596144, 921.0: 0.009641342074816815}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6445817789318075, 180.0: 0.01290222929264584}</t>
+    <t>{686.0: 0.3952431228545757, 921.0: 0.009641342074816815}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6444331106212848, 180.0: 0.021152330356122347}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -568,10 +571,10 @@
     <t>{280.0: 1.0}</t>
   </si>
   <si>
-    <t>{281.0: 1.0, 599.0: 0.005040793935575995, 621.0: 0.04563312178906014}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.19041780567013103}</t>
+    <t>{281.0: 1.0, 599.0: 0.005039313418414355, 621.0: 0.04563312178906014}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.19098494749820913}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -580,25 +583,25 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: 0.0028085336875687305, 917.0: 7.067469545271624e-05}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.18136033169287674}</t>
+    <t>{285.0: 1.0, 311.0: 0.002808088293838692, 917.0: 7.067469545271624e-05}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.1840774734567476}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -610,10 +613,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.06631936431783429}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.4580060505008871, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.06593118047976738}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.45532522645545087, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -625,40 +628,40 @@
     <t>{301.0: 0.9865262782189703}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778, 144.0: 0.0009680310073963151}</t>
+    <t>{303.0: 0.9136242208370436, 144.0: 0.0009638655596774717}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.31750227633901973, 909.0: 0.40590425741616165}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3175393174908343, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.019816749671968618, 426.0: 0.03955197759887994, 857.0: 5.0486552666831835e-06}</t>
+    <t>{309.0: 1.0, 204.0: 0.01982821514540354, 426.0: 0.039725786605730354, 857.0: 5.050535780260245e-06}</t>
   </si>
   <si>
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: -0.17990663113463695, 917.0: -0.004527218748218582}</t>
-  </si>
-  <si>
-    <t>{226.0: 0.2427079839550332, 5.0: 0.01582715129859224, 759.0: 0.003654342218400688}</t>
-  </si>
-  <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{311.0: 0.25520282518564824, 917.0: 0.0064230109816142975}</t>
+  </si>
+  <si>
+    <t>{226.0: 0.2427079839550332, 5.0: 0.01582787211535657, 759.0: 0.003654342218400688}</t>
+  </si>
+  <si>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -667,31 +670,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.6813090567317013}</t>
+    <t>{98.0: 0.6782781336570187}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146, 897.0: 0.015918924769318995}</t>
+    <t>{400.0: 0.9375071729331006, 897.0: 0.01581574764915452}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 476.0: 0.014908595742082748, 595.0: 0.0014060307799214982, 141.0: 0.0010629225922545575, 762.0: 0.0010629225922545575}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.23486628352579336, 782.0: 0.016145368846451156, 930.0: 0.03466123138963604}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.29179797477582636}</t>
+    <t>{402.0: 0.9983019057254231, 476.0: 0.01488053984211376, 595.0: 0.0013948897603641751, 141.0: 0.0010629225922545575, 762.0: 0.0010629225922545575}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.334621627080593, 782.0: 0.023097807016809496, 930.0: 0.04920380707209685}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.29439526531131543}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,16 +700,16 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
-  </si>
-  <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6920026961014009}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.4158673903591414, 782.0: 0.028587893961467842, 930.0: 0.061373116772034574}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
+  </si>
+  <si>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6922120774161032}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.3134363108230402, 782.0: 0.021635455791109502, 930.0: 0.046088652134287277}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -718,7 +718,7 @@
     <t>{414.0: 1.0, 759.0: 0.0021496130696474634}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.025258868390645006, 180.0: 0.0005055924978036709}</t>
+    <t>{415.0: 1.0, 277.0: 0.025275135519761547, 180.0: 0.0008296097880419807}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -727,55 +727,55 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.864197190205337, 212.0: 0.0008088029145710924, 681.0: 5.191844963546117e-06}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8627846712373488, 212.0: 0.0008055402969245773, 681.0: 5.178103472838508e-06}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14895191648718398}</t>
-  </si>
-  <si>
-    <t>{423.0: 0.9963219385547382}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{597.0: 0.13743568393910327}</t>
+  </si>
+  <si>
+    <t>{423.0: 0.9963346269943941}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
   </si>
   <si>
-    <t>{426.0: 0.96044802240112}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.2659809045191806}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7293886394220543}</t>
+    <t>{426.0: 0.9602742133942697}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.21107298089609178}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7842965630451432}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.20959724221790005, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.49471176732203737}</t>
+    <t>{431.0: 0.15616427925643236, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.5481447302835051}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -793,34 +793,34 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 0.9978991596638656}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 0.9825250343608875}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272, 595.0: 0.07798943661869868}</t>
-  </si>
-  <si>
-    <t>{477.0: 0.08288882327934162}</t>
+    <t>{476.0: 0.8253941069561146, 595.0: 0.07737177550505259}</t>
+  </si>
+  <si>
+    <t>{477.0: 0.0828872914271976}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 0.6303059046715674}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -838,25 +838,25 @@
     <t>{487.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9861400416599904, 935.0: 0.005134841466606503}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726, 503.0: 0.007690879292109704}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7572537191552514, 97.0: 0.004860304774426683, 696.0: 0.0010003915011578862, 85.0: 0.0014232697124584544, 178.0: 0.015121184392414243, 14.0: 0.0004676147517185394}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.156676093227567e-05}</t>
+    <t>{489.0: 0.9861400416599904, 935.0: 0.005083835245575205}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774, 503.0: 0.007727197983891121}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7571857821997865, 97.0: 0.004826340390360104, 696.0: 0.0009719090354196443, 85.0: 0.0014232193527988638, 178.0: 0.015120528899491788, 14.0: 0.00046683465890533634}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.152665026293531e-05}</t>
   </si>
   <si>
     <t>{494.0: 0.9441460794844253}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
@@ -865,19 +865,19 @@
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.19667349404315676, 180.0: 0.003936702213543456}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.196161521917118, 180.0: 0.0064386407935346215}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.18598019855596482, 298.0: 0.00019010513430182239, 857.0: 0.00017716181648910772}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9436281620346821}</t>
+    <t>{534.0: 0.17503098432337108, 298.0: 0.00019241673586831533, 857.0: 0.0001772847706253548}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9433620872000411}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -889,13 +889,13 @@
     <t>{249.0: 0.035140616245606826, 702.0: 0.04400142825868001}</t>
   </si>
   <si>
-    <t>{507.0: 0.7987576959287707}</t>
-  </si>
-  <si>
-    <t>{529.0: 1.0, 530.0: 0.01221001221001221}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.9877899877899878}</t>
+    <t>{507.0: 0.7976368788574122}</t>
+  </si>
+  <si>
+    <t>{529.0: 1.0, 530.0: 0.012586532410320957}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9874134675896791}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -907,37 +907,37 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.44172514845365357, 402.0: 0.0006615052106698433, 476.0: 9.87884988589353e-06, 595.0: 9.316750718904286e-07, 141.0: 7.043220509070336e-07, 762.0: 7.043220509070336e-07}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.44850068491083017, 837.0: 0.019086155338294847}</t>
-  </si>
-  <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{534.0: 0.46654379136126534, 402.0: 0.0006615025880422153, 476.0: 9.860259266830399e-06, 595.0: 9.242927226949286e-07, 141.0: 7.043220509070336e-07, 762.0: 7.043220509070336e-07}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.4452228917993076, 837.0: 0.019443284366923764}</t>
+  </si>
+  <si>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0, 428.0: 0.0009161950239545003}</t>
   </si>
   <si>
-    <t>{542.0: 0.08118541773562422}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.6615656529552273}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.6067210535157433}</t>
-  </si>
-  <si>
-    <t>{544.0: 1.0, 975.0: 0.0007079704314882281}</t>
+    <t>{542.0: 0.07657365239256293}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.6661738179022386}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.6068619892475952}</t>
+  </si>
+  <si>
+    <t>{544.0: 1.0, 975.0: 0.000707939738530667}</t>
   </si>
   <si>
     <t>{545.0: 1.0}</t>
@@ -952,7 +952,7 @@
     <t>{561.0: 0.9775441949354993, 979.0: 0.001452643811737362}</t>
   </si>
   <si>
-    <t>{562.0: 0.6410523032130602, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 0.6410523032130602, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0}</t>
@@ -985,25 +985,25 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.6171109798700464}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7086945288911954, 144.0: 0.024667481077092348, 303.0: 0.08541659767396019}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.6162362878109587}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7088793209528648, 144.0: 0.024689258787754288, 303.0: 0.0855687198425692}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{758.0: 0.13435463720265733}</t>
+    <t>{758.0: 0.17026122246430186}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928, 434.0: 0.01909241091548}</t>
+    <t>{585.0: 0.9874713727603395, 434.0: 0.01713728914072638}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1012,7 +1012,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.20124230407122928}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.2023631211425878}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1024,25 +1024,25 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.22700102159895758, 686.0: 0.0016654057694474836, 171.0: 0.0012702656154636076}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.4752051152692574, 686.0: 0.0034863690703496463, 171.0: 0.0026591806238009013}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9041378805394085, 402.0: 0.0010326311441553077, 476.0: 1.5421205904453837e-05}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8484385079682668}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.017836643902246173}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9745587882870337}</t>
+    <t>{593.0: 0.34903027661157165, 686.0: 0.0025338360963508516, 171.0: 0.0019604600211132086}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.35349335774018636, 686.0: 0.0025662364834301977, 171.0: 0.001985528597422912}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9046919016314485, 402.0: 0.001036591686534674, 476.0: 1.545128162434429e-05}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.859921524409961}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.01805030673635607}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9742725534142088}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1057,19 +1057,19 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.019269432497417367, 852.0: 0.0025188916876574307}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.019270979858163232, 852.0: 0.0025188916876574307}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1081,16 +1081,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8418999243921436}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.8423040582090643}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1099,10 +1099,10 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.00853814569167461, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.008402432138969577, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.005487623060981204}</t>
@@ -1114,7 +1114,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1126,10 +1126,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 0.3460716828863043, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 0.3460716828863043, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{603.0: 0.48188504494688095, 617.0: 0.09160405235371184}</t>
@@ -1138,7 +1138,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{226.0: 0.06961119065976429, 729.0: 0.053167325649869604}</t>
@@ -1150,25 +1150,25 @@
     <t>{636.0: 0.8633610900832702}</t>
   </si>
   <si>
-    <t>{702.0: 0.0008999006753813592}</t>
+    <t>{702.0: 0.0008181632517291384}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9940650146591502}</t>
   </si>
   <si>
-    <t>{681.0: 0.9722793299788939}</t>
+    <t>{681.0: 0.9721811674574424}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.02529103651019675, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.025307789715560587, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1177,10 +1177,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.5188192558492247}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 534.0: 0.047630701016118486, 174.0: 0.006582278481012658}</t>
+    <t>{686.0: 0.5191522157073675}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 534.0: 0.04492051246261242, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1192,28 +1192,28 @@
     <t>{691.0: 0.9858705560619873}</t>
   </si>
   <si>
-    <t>{692.0: 1.0, 110.0: 0.027943409349163437}</t>
+    <t>{692.0: 1.0, 110.0: 0.02795442048268693}</t>
   </si>
   <si>
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.47222139305615607, 165.0: 0.03821685800246833, 433.0: 0.008222696228123466}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10341719306019138, 857.0: 0.0963760281700746}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.996083115505285, 492.0: 0.00687792484409364, 14.0: 0.0009588527772686218, 178.0: 1.605982649391718e-07, 623.0: 7.544958901099875e-07, 97.0: 3.624939584340261e-06}</t>
+    <t>{86.0: 0.47388238887602785, 165.0: 0.03833936303366845, 433.0: 0.008273306595928715}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10467470431236355, 857.0: 0.096442915220193}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9960326904257072, 492.0: 0.006841233526282549, 14.0: 0.0009589025198243244, 178.0: 1.6156856797685133e-07, 623.0: 7.564571179588972e-07, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.17419037196644613}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.7979602789534158}</t>
+    <t>{698.0: 0.4032196218620476}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5688945297935495}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1222,31 +1222,31 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.6185531570853442}</t>
-  </si>
-  <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{702.0: 0.6185314183072287}</t>
+  </si>
+  <si>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21364068587520363}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21430295186114953}</t>
   </si>
   <si>
     <t>{729.0: 0.8205940003572835}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{888.0: 0.7743490239264605, 73.0: 0.15663214004979042}</t>
+    <t>{888.0: 0.7743475758866464, 73.0: 0.156636125432775}</t>
   </si>
   <si>
     <t>{735.0: 0.6435926773455377}</t>
@@ -1255,28 +1255,28 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9918119538491231, 90.0: 0.03336709490427921, 789.0: 0.001337755535269926, 246.0: 0.0046769653436076015}</t>
-  </si>
-  <si>
-    <t>{758.0: 0.16227014493243197}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.4368892918303616}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.991803949454545, 90.0: 0.033366825615940315, 789.0: 0.0013407587636822436, 246.0: 0.0046735214091655165}</t>
+  </si>
+  <si>
+    <t>{758.0: 0.12636355967078747}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.35001210556048745}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1288,7 +1288,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 595.0: 0.014912221372871303, 534.0: 0.051506884489296745}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 595.0: 0.014970152642718296, 534.0: 0.054145179905543954}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1297,7 +1297,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.1692483342547498}</t>
+    <t>{580.0: 0.16946076032789179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1318,10 +1318,10 @@
     <t>{759.0: 0.9941960447119519}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{141.0: 0.08531777884783316, 762.0: 0.08531777884783316}</t>
@@ -1339,16 +1339,16 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 410.0: 0.0011892711866379729, 729.0: 0.0005296867481815251}</t>
+    <t>{770.0: 1.0, 410.0: 0.001187460658027995, 729.0: 0.0005288803610238408}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.729160314791915e-07}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.09693769541970168, 729.0: 0.04317485636579488}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.708178695335117e-07}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.09693908409627565, 729.0: 0.04317547486524815}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1360,16 +1360,16 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.999406906845107, 171.0: 0.0177645691330777, 184.0: 0.008221436149102493, 593.0: 0.0012663229284891708, 420.0: 0.0013266766813100044, 212.0: 1.2416378792924353e-06, 681.0: 7.970287018032109e-09}</t>
+    <t>{778.0: 0.9994224855356005, 171.0: 0.01756592497786708, 184.0: 0.008237802816574552, 593.0: 0.0012663011278041482, 420.0: 0.0013245082456821442, 212.0: 1.2366292553340148e-06, 681.0: 7.949191699168725e-09}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0003984644402254381, 172.0: 8.39876514179992e-07}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.0003929158868795293, 172.0: 8.253494257144237e-07}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1381,37 +1381,37 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.0678019663035204, 180.0: 0.0013571536526986046}</t>
-  </si>
-  <si>
-    <t>{788.0: -0.04165571887483691}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692}</t>
+    <t>{277.0: 0.06831393842955914, 180.0: 0.002242279252530558}</t>
+  </si>
+  <si>
+    <t>{788.0: -0.03638598371247355}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
-  </si>
-  <si>
-    <t>{833.0: 1.0, 17.0: 0.015066543902234872, 918.0: 0.0009159606136936112}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.5258853831294269}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951693718708581, 836.0: 0.01623484783609078}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9837651521639091, 835.0: 0.0048306281291418725}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9726485174093751, 486.0: 0.8429827244967432, 604.0: 0.406643068799627, 980.0: 0.30157180612251394}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036780614452617912}</t>
+    <t>{832.0: 0.8786591123701605}</t>
+  </si>
+  <si>
+    <t>{833.0: 1.0, 17.0: 0.01506752864366639, 918.0: 0.0009159606136936112}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.5258548522119905}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9949819321325729, 836.0: 0.015424630556912554}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9845753694430874, 835.0: 0.005018067867427023}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9719706112379355, 486.0: 0.8407936948063115, 604.0: 0.40822465293820404, 980.0: 0.30157180612251394}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.33900173438483133, 686.0: 0.016437816720647872}</t>
+    <t>{227.0: 0.37937347157157514, 686.0: 0.01637923011790771}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1438,37 +1438,37 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 707.0: 0.004892798537073047, 634.0: 0.7423394242266101}</t>
+    <t>{848.0: 0.9228851136919364, 707.0: 0.005069249937886742, 634.0: 0.7475404131057521}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.025012879793628044, 277.0: 0.06388127608361341}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.002024506005837099}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 92.0: 1.6074545008734487e-07, 202.0: 0.7249194398222232, 680.0: 0.00593498534084983, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
-  </si>
-  <si>
-    <t>{854.0: 1.0, 976.0: 0.060204809135467184}</t>
+    <t>{180.0: 0.006014103002808445, 277.0: 0.064011902744831}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0020934673940556}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 92.0: 1.4919327550235536e-07, 202.0: 0.7248987685431864, 680.0: 0.00593498534084983, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756}</t>
+  </si>
+  <si>
+    <t>{854.0: 1.0, 976.0: 0.06009360873970052}</t>
   </si>
   <si>
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.8985835125186872, 298.0: 0.001903546161053681}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.0705509534663924, 543.0: 0.0008218277024618139}</t>
+    <t>{146.0: 0.2650049428046886}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.8985182985681253, 298.0: 0.001920930441631163}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.33960102705905587, 543.0: 0.00395705124028581}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1477,13 +1477,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.8897969324361419, 253.0: 0.00146348179676997, 490.0: 0.04277317100117222}</t>
-  </si>
-  <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{861.0: 0.895224211041845, 253.0: 0.0014724082418451398, 490.0: 0.04318803107812268}</t>
+  </si>
+  <si>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1492,10 +1492,10 @@
     <t>{886.0: 0.4020987553892459}</t>
   </si>
   <si>
-    <t>{887.0: 0.7855343805393834, 834.0: 0.0003853383375844337}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.2210067384085172}</t>
+    <t>{887.0: 0.784559191681481, 834.0: 0.0004049256727081552}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.22100815664548643}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1510,64 +1510,64 @@
     <t>{892.0: 1.0}</t>
   </si>
   <si>
-    <t>{893.0: 0.9978947368421053}</t>
+    <t>{893.0: 0.9977452085682075}</t>
   </si>
   <si>
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 897.0: 0.025011973259636902, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 897.0: 0.024959772235402113, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5284090305469189}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.4127354108909617}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.25724892930914856}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.0943633528885198, 253.0: 0.0001552028830403286, 490.0: 0.004536113445900516}</t>
+    <t>{788.0: 0.5258825654402548}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.4099997389179901}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.2572525297051986}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.08891944116859278, 253.0: 0.00014624908086939602, 490.0: 0.004289713728998983}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
   </si>
   <si>
-    <t>{914.0: 0.95590953518928, 110.0: 0.13225596173777687}</t>
-  </si>
-  <si>
-    <t>{915.0: 1.0, 171.0: 0.23926214182338407, 420.0: 0.13447613311335305}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.22372587767191515}</t>
-  </si>
-  <si>
-    <t>{917.0: 0.7979505825057535}</t>
+    <t>{914.0: 0.95590953518928, 110.0: 0.13230807735601716}</t>
+  </si>
+  <si>
+    <t>{915.0: 1.0, 171.0: 0.2366124934523391, 420.0: 0.135890820516969}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.21235609808836542}</t>
+  </si>
+  <si>
+    <t>{917.0: 0.7976370566050043}</t>
   </si>
   <si>
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182, 297.0: 0.0009905894006934125}</t>
+    <t>{298.0: 0.2231833910034602, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 0.9903586579251832, 686.0: 0.06429018408638608}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.913783438500914}</t>
+    <t>{921.0: 0.9903586579251832, 686.0: 0.06406003778276922}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9149179109469824}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1585,49 +1585,49 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.0649226229958314}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06371764180079881}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
   </si>
   <si>
-    <t>{932.0: 1.0, 108.0: 0.0004714245245266227, 144.0: 3.872163013753022e-06}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.22847970492944453, 702.0: 0.19452922961350527}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.014752927942984006}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{932.0: 1.0, 108.0: 0.0004714268749157421, 144.0: 3.872095472216239e-06}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.22912593073271295, 702.0: 0.19453117352956792}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.014708056784987813}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24877521526153046, 171.0: 0.0009896642317907222, 85.0: 0.0035962086312661835}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.1351555863735242, 206.0: 0.1472611464968153}</t>
+    <t>{593.0: 0.24857342310263736, 171.0: 0.000986460766072281, 85.0: 0.003634651862191165}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.13143894210007095, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 634.0: 0.2547180118412863, 848.0: 0.07675609826841082, 707.0: 0.0004067745528724848}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 634.0: 0.24960620508518372, 848.0: 0.07711488630806371, 707.0: 0.0004235788689487784}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.00212017325621649, 152.0: 0.0004351136734471881}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.01084902321095488}</t>
+    <t>{971.0: 1.0, 975.0: 0.0021634278806931177, 152.0: 0.0004267121826328142}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.010705282743861748}</t>
   </si>
   <si>
     <t>{973.0: 0.9165003326679974, 494.0: 0.051190136733336056}</t>
@@ -1636,16 +1636,16 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9963503872477665}</t>
-  </si>
-  <si>
-    <t>{976.0: 0.9397951908645329}</t>
+    <t>{975.0: 0.996307192025492}</t>
+  </si>
+  <si>
+    <t>{976.0: 0.9399063912602995}</t>
   </si>
   <si>
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204, 489.0: 0.013859958340009615, 935.0: 7.21689474143249e-05}</t>
+    <t>{782.0: 0.21279960670180362, 489.0: 0.013859958340009615, 935.0: 7.145206738845646e-05}</t>
   </si>
   <si>
     <t>{979.0: 0.9985473561882626, 561.0: 0.022455805064500716}</t>
@@ -1657,19 +1657,19 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.10598357914895444, 729.0: 0.047203781636002945}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.07807107216517041, 729.0: 0.03477189459127346}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.0841020217308058}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.1217684170457661, 729.0: 0.054234154144876194}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.06228887093494651, 729.0: 0.027742696421244536}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.07523380214485471}</t>
   </si>
   <si>
     <t>{486.0: 0.8813719916619289, 837.0: 0.11862800833807087}</t>
@@ -1690,7 +1690,7 @@
     <t>{11.0: 0.9970355731225297, 73.0: 0.0029644268774703555}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123918, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033589, 696.0: 0.0057214311615196856, 492.0: 9.252232685240912e-05}</t>
+    <t>{14.0: 0.9919351812436294, 178.0: 0.000640674146945109, 623.0: 0.0016139444803098776, 696.0: 0.0057179007368205565, 492.0: 9.229939229500005e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1708,10 +1708,10 @@
     <t>{44.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8402569999899321, 90.0: 0.060805074568081506, 246.0: 0.056120808244724235, 681.0: 0.024168276806563138, 741.0: 0.00772097822865127, 789.0: 0.010927862162047825}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{46.0: 0.840256999989932, 90.0: 0.060805074568081506, 246.0: 0.056120064634074165, 681.0: 0.024168276806563138, 741.0: 0.007720978228651267, 789.0: 0.010928605772697894}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195955}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -1729,10 +1729,10 @@
     <t>{73.0: 0.9914168937329702, 888.0: 0.008583106267029973}</t>
   </si>
   <si>
-    <t>{75.0: 0.885287356321839, 917.0: 0.11471264367816088}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.8878903617164684, 917.0: 0.11210963828353182}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613504, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
@@ -1741,10 +1741,10 @@
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.9985382678699433, 172.0: 0.0014617321300571375}</t>
-  </si>
-  <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896842056550164, 97.0: 1.8201557532787838e-05, 696.0: 4.477975213620284e-06}</t>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.0014629265508203813}</t>
+  </si>
+  <si>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023626260699482208, 14.0: 0.00018083264312365534, 492.0: 0.008896841928733116, 97.0: 1.8201557532787838e-05, 696.0: 4.478103030671848e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9994187660044906, 165.0: 0.000476246703126895, 433.0: 0.00010498729238260625}</t>
@@ -1774,28 +1774,28 @@
     <t>{102.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6707457469502988, 86.0: 0.32925425304970135}</t>
-  </si>
-  <si>
-    <t>{543.0: 0.6591156106243851, 86.0: 0.323545276337936, 505.0: 0.017339113037679228}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511287, 144.0: 0.012081148848871666}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.778344322842229, 110.0: 0.22165567715777135}</t>
+    <t>{543.0: 0.6707439927095042, 86.0: 0.3292560072904959}</t>
+  </si>
+  <si>
+    <t>{543.0: 0.6591138868005697, 86.0: 0.3235470001617511, 505.0: 0.017339113037679228}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.987918851151128, 144.0: 0.012081148848871666}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.7783443228422288, 110.0: 0.22165567715777135}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{140.0: 0.9858227848101264, 141.0: 0.01335633826836721, 762.0: 0.0008208769215062111}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.9420988600009006, 762.0: 0.05790113999909881}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.9847917376007265, 44.0: 0.015208262399273639}</t>
+    <t>{140.0: 0.9858227848101264, 141.0: 0.013357542030096597, 762.0: 0.0008196731597768281}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.9421837681943128, 762.0: 0.057816231805686964}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.984711922418711, 44.0: 0.01528807758128922}</t>
   </si>
   <si>
     <t>{144.0: 1.0}</t>
@@ -1813,13 +1813,13 @@
     <t>{152.0: 0.9990500316656111, 975.0: 0.0009499683343888536}</t>
   </si>
   <si>
-    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.021891522984659927, 404.0: 0.00014089475774519664}</t>
+    <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.0218916729923871, 404.0: 0.00014074475001802581}</t>
   </si>
   <si>
     <t>{165.0: 0.979945769710397, 914.0: 0.019393847876713152, 110.0: 0.0006603824128895606}</t>
   </si>
   <si>
-    <t>{166.0: 0.9992304732589454, 893.0: 0.0007695267410542517}</t>
+    <t>{166.0: 0.9992208804051425, 893.0: 0.0007791195948578107}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1828,10 +1828,10 @@
     <t>{172.0: 0.9946275071633239, 81.0: 0.005372492836676218}</t>
   </si>
   <si>
-    <t>{173.0: 0.9551925469933332, 404.0: 0.0061476591922338415, 185.0: 0.0377733773255125, 700.0: 0.0008864164889204882}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.5192117150704537, 534.0: 0.4807882849295462}</t>
+    <t>{173.0: 0.9551990922786059, 404.0: 0.006141113906961301, 185.0: 0.0377733773255125, 700.0: 0.0008864164889204882}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.5213493935712422, 534.0: 0.4786506064287579}</t>
   </si>
   <si>
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
@@ -1840,25 +1840,25 @@
     <t>{562.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9852399198650879, 14.0: 0.007540911407281928, 681.0: 0.007219168727630309}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5428960109589418, 180.0: 0.44676854643963, 410.0: 0.010246425442575776, 277.0: 8.901715885237608e-05}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9744761105291382, 410.0: 0.025304057170381308, 277.0: 0.00021983230048070306}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.9979967004477969, 277.0: 0.0019306801921326877, 180.0: 7.261936007094297e-05}</t>
+    <t>{178.0: 0.9851842469737514, 14.0: 0.007540485293466511, 681.0: 0.007275267732782239}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5438355769225947, 180.0: 0.44578667419459694, 410.0: 0.010220365869510065, 277.0: 0.0001573830132980616}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9743062866453893, 410.0: 0.025304057170381308, 277.0: 0.00038965618422933594}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.9979888796876848, 277.0: 0.001938217450661064, 180.0: 7.290286165408993e-05}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6198636811651962, 171.0: 0.16743580614272274, 593.0: 0.21101587657348264, 778.0: 0.001684636118598383}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947866}</t>
+    <t>{184.0: 0.619581107396017, 171.0: 0.16755953700304696, 593.0: 0.21116098603571867, 778.0: 0.001698369565217391}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990522, 543.0: 0.012701421800947868}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823576, 917.0: 0.018264222417641886}</t>
@@ -1870,13 +1870,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744951, 857.0: 0.005385190725504863}</t>
+    <t>{204.0: 0.9946682464454972, 857.0: 0.005331753554502373}</t>
   </si>
   <si>
     <t>{206.0: 0.8527388535031845, 785.0: 0.1472611464968153}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1897,19 +1897,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.2184666176319087}</t>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.2186245622734175}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.09984639016897079}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.9001536098310289, 999.0: 0.0998463901689708}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8416485635345012, 490.0: 0.002764034691410511, 503.0: 0.15558740177408845}</t>
+    <t>{221.0: 0.9001536098310294, 999.0: 0.09984639016897082}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.841323611564875, 490.0: 0.0027697896677032928, 503.0: 0.1559065987674213}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1921,10 +1918,10 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.999666475270424, 297.0: 0.0001804561835678022, 686.0: 0.00015306854600825932}</t>
-  </si>
-  <si>
-    <t>{228.0: 0.992380952380952, 738.0: 0.007619047619047619}</t>
+    <t>{227.0: 0.9996683166600522, 297.0: 0.00017861479393955934, 686.0: 0.00015306854600825932}</t>
+  </si>
+  <si>
+    <t>{228.0: 0.992380952380952, 738.0: 0.007619047619047624}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427762, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
@@ -1933,7 +1930,7 @@
     <t>{102.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.23750306546350664, 241.0: 0.7624969345364935}</t>
+    <t>{240.0: 0.2375030654635065, 241.0: 0.7624969345364935}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1954,22 +1951,22 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.8887904297740357, 973.0: 0.10014817456462069, 494.0: 0.011061395661342984}</t>
+    <t>{255.0: 0.8887904297740364, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{262.0: 0.9992897727272727, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.9681191395477114, 897.0: 0.03188086045228902}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233081}</t>
-  </si>
-  <si>
-    <t>{270.0: 0.9873640905083754, 479.0: 0.012356147657862115, 942.0: 0.0002797618337629159}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.9681191395477111, 897.0: 0.03188086045228902}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233088}</t>
+  </si>
+  <si>
+    <t>{270.0: 0.9873640905083754, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
   </si>
   <si>
     <t>{272.0: 0.8427700348432053, 203.0: 0.15722996515679444}</t>
@@ -1981,7 +1978,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434109, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434102, 180.0: 0.03624987585658954}</t>
   </si>
   <si>
     <t>{281.0: 0.9619157530294288, 599.0: 0.009040200038468936, 621.0: 0.029044046932102323}</t>
@@ -2005,16 +2002,16 @@
     <t>{292.0: 0.7970762269404801, 139.0: 0.20292377305951956}</t>
   </si>
   <si>
-    <t>{297.0: 0.9603432910825851, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.013922582006117505}</t>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9860788863109048, 297.0: 0.013921113689095124}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9976967370441456, 144.0: 0.0023032629558541267}</t>
+    <t>{303.0: 0.997686969930609, 144.0: 0.002313030069390902}</t>
   </si>
   <si>
     <t>{305.0: 1.0}</t>
@@ -2023,40 +2020,43 @@
     <t>{142.0: 0.3165679387265435, 909.0: 0.6834320612734565}</t>
   </si>
   <si>
-    <t>{309.0: 0.8858654923525083, 204.0: 0.040985444079406186, 426.0: 0.0731432659158121, 857.0: 5.797652272921261e-06}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{309.0: 0.8880984604071782, 204.0: 0.041033345463431264, 426.0: 0.07086273685860801, 857.0: 5.457270782499869e-06}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392755, 5.0: 0.053001830257361125, 759.0: 0.005269187803363386}</t>
   </si>
   <si>
-    <t>{315.0: 0.992684042066758, 217.0: 0.0073159579332418845}</t>
-  </si>
-  <si>
-    <t>{317.0: 0.9822371579452713, 71.0: 0.017762842054728757}</t>
+    <t>{315.0: 0.9926840420667584, 217.0: 0.0073159579332418845}</t>
+  </si>
+  <si>
+    <t>{317.0: 0.9820519039534321, 71.0: 0.017948096046568034}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
   </si>
   <si>
+    <t>{400.0: 0.9681191395477112, 897.0: 0.03188086045228902}</t>
+  </si>
+  <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9876183457230786, 476.0: 0.008786909525333939, 595.0: 0.0016019189245647472, 141.0: 0.001877438939818455, 762.0: 0.0001153868872042623}</t>
+    <t>{402.0: 0.9876183457230786, 476.0: 0.00878804806046156, 595.0: 0.0016007803894371256, 141.0: 0.0018776081470592136, 762.0: 0.00011521767996350533}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.784659558305239, 782.0: 0.024509507908537877, 930.0: 0.19083093378622312}</t>
-  </si>
-  <si>
-    <t>{405.0: 0.3647447487468991, 404.0: 0.6352552512531009}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{404.0: 0.784610271386408, 782.0: 0.024531876508247667, 930.0: 0.19085785210534426}</t>
+  </si>
+  <si>
+    <t>{405.0: 0.3568051425820519, 404.0: 0.643194857417948}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2065,22 +2065,22 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.7846595583052389, 782.0: 0.024509507908537884, 930.0: 0.19083093378622312}</t>
+    <t>{404.0: 0.784610271386408, 782.0: 0.024531876508247667, 930.0: 0.19085785210534428}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471697, 277.0: 0.1222871619785742, 180.0: 0.004599630474255935}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.12246045507537902, 180.0: 0.004606148609080106}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391353, 17.0: 0.01478953356086462}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365612, 681.0: 3.563192929675042e-06}</t>
+    <t>{419.0: 0.9852607709750565, 17.0: 0.01473922902494331}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.9998354992597468, 212.0: 0.00016093754732365617, 681.0: 3.563192929675042e-06}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -2089,7 +2089,7 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0475629244060067, 434.0: 0.0003999430514455908}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.047489449239571054, 434.0: 0.000399325219749228}</t>
   </si>
   <si>
     <t>{426.0: 1.0}</t>
@@ -2098,7 +2098,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.9998116051243405, 783.0: 0.00018839487565938207}</t>
+    <t>{431.0: 0.9996376811594208, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -2113,46 +2113,46 @@
     <t>{434.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363631, 782.0: 0.011363636363636367}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636362}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.8939655172413793, 291.0: 0.1060344827586207}</t>
+    <t>{443.0: 0.8939655172413794, 291.0: 0.10603448275862067}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.8458036984352777, 595.0: 0.15419630156472267}</t>
+    <t>{476.0: 0.8459132906894105, 595.0: 0.15408670931059}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977858, 942.0: 0.022140221402214017}</t>
+    <t>{479.0: 0.977422389463782, 942.0: 0.02257761053621825}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555473, 563.0: 0.03900037864445286}</t>
-  </si>
-  <si>
-    <t>{489.0: 0.9916936790923822, 935.0: 0.008306320907617504}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.022113022113022112}</t>
+    <t>{483.0: 0.9609996213555467, 563.0: 0.03900037864445286}</t>
+  </si>
+  <si>
+    <t>{489.0: 0.9917305365066561, 935.0: 0.00826946349334409}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
   </si>
   <si>
     <t>{491.0: 0.594383150823144, 492.0: 0.40561684917685586}</t>
   </si>
   <si>
-    <t>{492.0: 0.9810074512863981, 97.0: 0.002446549374644078, 696.0: 0.0004937625084625475, 85.0: 0.000527242705573207, 178.0: 0.015407070206966456, 14.0: 0.00011792391795535073}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9826319305277217, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
+    <t>{492.0: 0.9810074371926921, 97.0: 0.002446549374644078, 696.0: 0.0004937766021689648, 85.0: 0.000527242705573207, 178.0: 0.015407070206966456, 14.0: 0.00011792391795535073}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.982631930527722, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
@@ -2164,10 +2164,10 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434111, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.9988226983753234, 298.0: 0.0008492817296495458, 857.0: 0.00032801989502669624}</t>
+    <t>{277.0: 0.9637501241434097, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.9988226983753234, 298.0: 0.0008493757985227521, 857.0: 0.00032792582615348987}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -2176,7 +2176,7 @@
     <t>{505.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728275, 702.0: 0.6112044817927171}</t>
+    <t>{249.0: 0.388795518207283, 702.0: 0.6112044817927171}</t>
   </si>
   <si>
     <t>{507.0: 1.0}</t>
@@ -2191,13 +2191,13 @@
     <t>{531.0: 0.9788982259570493, 262.0: 0.019981325863678803, 442.0: 0.0011204481792717086}</t>
   </si>
   <si>
-    <t>{534.0: 0.9992392131290078, 402.0: 0.0007513670709772362, 476.0: 6.684965403471098e-06, 595.0: 1.2187188862029379e-06, 141.0: 1.4283308965035524e-06, 762.0: 8.778482886967026e-08}</t>
-  </si>
-  <si>
-    <t>{535.0: 0.9934522679825396, 71.0: 0.0065477320174606194}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124718, 837.0: 0.18177668218752846}</t>
+    <t>{534.0: 0.9992392131290077, 402.0: 0.0007513670709772362, 476.0: 6.685831586048357e-06, 595.0: 1.2178527036256798e-06, 141.0: 1.428459627150798e-06, 762.0: 8.765609822242554e-08}</t>
+  </si>
+  <si>
+    <t>{535.0: 0.9934522679825392, 71.0: 0.0065477320174606194}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664719, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{537.0: 0.9727987104573845, 608.0: 0.027201289542615352}</t>
@@ -2227,7 +2227,7 @@
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.8847625759895477, 565.0: 0.11523742401045246}</t>
+    <t>{564.0: 0.8869264658882777, 565.0: 0.11307353411172195}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -2236,28 +2236,28 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{576.0: 0.9802847754654981, 401.0: 0.019715224534501644}</t>
+    <t>{576.0: 0.9802847754654983, 401.0: 0.019715224534501644}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8894713337125868, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
+    <t>{581.0: 0.8894713337125869, 144.0: 0.046519163845813546, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9916614024005049, 434.0: 0.00833859759949463}</t>
+    <t>{585.0: 0.9916614024005052, 434.0: 0.00833859759949463}</t>
   </si>
   <si>
     <t>{81.0: 0.3681337174635443, 172.0: 0.07345738928110976, 507.0: 0.5584088932553459}</t>
   </si>
   <si>
-    <t>{593.0: 0.991207567281932, 686.0: 0.005427172557571231, 171.0: 0.003365260160497023}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9991026470588212, 402.0: 0.0008894395353984783, 476.0: 7.913405780326473e-06}</t>
+    <t>{593.0: 0.9912172314130088, 686.0: 0.005417508426494019, 171.0: 0.003365260160497023}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9991026460334675, 402.0: 0.0008894395353984776, 476.0: 7.914431134056821e-06}</t>
   </si>
   <si>
     <t>{598.0: 0.9820673168294207, 599.0: 0.017932683170579104}</t>
@@ -2266,10 +2266,10 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7589999858839297, 837.0: 0.1686196130210783, 922.0: 0.07120751642374874, 852.0: 0.001172884671243}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7596809969694167, 837.0: 0.16867679992930837, 922.0: 0.07046941185811584, 852.0: 0.0011727912431587178}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
@@ -2293,7 +2293,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230431, 615.0: 0.019634578674665937, 698.0: 0.010908099263703298, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230431, 615.0: 0.01963457867466594, 698.0: 0.010908099263703298, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2302,10 +2302,10 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9870244830639154, 789.0: 0.01297551693608495}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.965509644191444, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
+    <t>{246.0: 0.9870235970064314, 789.0: 0.012976402993568503}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025536, 887.0: 0.013046083606791267, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428885, 785.0: 0.004577046957111375}</t>
@@ -2320,9 +2320,6 @@
     <t>{629.0: 0.20385830114630685, 209.0: 0.12419463399985504, 788.0: 0.671947064853838}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{629.0: 1.0}</t>
   </si>
   <si>
@@ -2347,7 +2344,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.7058427004955543, 534.0: 0.29267935943527196, 174.0: 0.0014779400691736146}</t>
+    <t>{687.0: 0.707188847156117, 534.0: 0.291314676333301, 174.0: 0.0014964765105820598}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.042517006802721094}</t>
@@ -2362,13 +2359,13 @@
     <t>{692.0: 0.9612552033301314, 110.0: 0.038744796669868714}</t>
   </si>
   <si>
-    <t>{86.0: 0.9518932703057186, 165.0: 0.03941729422594258, 433.0: 0.008689435468338782}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.721379901164324, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9816108316661318, 492.0: 0.017884122003138155, 14.0: 0.0004997967608728882, 178.0: 3.23020500067043e-07, 623.0: 8.137321532264153e-07, 97.0: 4.11281720352593e-06}</t>
+    <t>{86.0: 0.951893270305719, 165.0: 0.03941729422594258, 433.0: 0.008689435468338782}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652259, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9816388484063283, 492.0: 0.01785610337176307, 14.0: 0.0004997993859138207, 178.0: 3.2281196520579893e-07, 623.0: 8.132068258195552e-07, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2377,7 +2374,7 @@
     <t>{700.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9874529485570893, 481.0: 0.012547051442910916}</t>
+    <t>{704.0: 0.9874529485570893, 481.0: 0.012547051442910913}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2389,37 +2386,37 @@
     <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624012}</t>
   </si>
   <si>
-    <t>{888.0: 0.8647615067933467, 73.0: 0.13523849320665327}</t>
+    <t>{888.0: 0.8647924498870715, 73.0: 0.13520755011292845}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851535, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192107, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.7011235955056181, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.8859583153113909, 90.0: 0.09275598362042736, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
+    <t>{740.0: 0.7011235955056179, 789.0: 0.28175004279029686, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.8859583153113909, 90.0: 0.0927559836204274, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{746.0: 0.9899854627685352, 691.0: 0.01001453723146503}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.2037440832007895, 595.0: 0.037144060913161095, 534.0: 0.19648093841642233}</t>
+    <t>{746.0: 0.9899854627685349, 691.0: 0.01001453723146503}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.20377048267549688, 595.0: 0.037117661438453804, 534.0: 0.19648093841642233}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787183, 917.0: 0.0799912289212821}</t>
+    <t>{754.0: 0.8492529563266307, 917.0: 0.15074704367336977}</t>
   </si>
   <si>
     <t>{759.0: 1.0}</t>
@@ -2431,22 +2428,22 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.942098860000901, 762.0: 0.057901139999098857}</t>
-  </si>
-  <si>
-    <t>{770.0: 0.9803571428571428, 410.0: 0.013653342745374858, 729.0: 0.0059895143974822785}</t>
-  </si>
-  <si>
-    <t>{772.0: 0.9882429784454609, 493.0: 0.011552824787393204, 108.0: 0.00020172983560795793, 144.0: 2.4669315383529704e-06}</t>
+    <t>{141.0: 0.9421837681943137, 762.0: 0.05781623180568698}</t>
+  </si>
+  <si>
+    <t>{770.0: 0.9801712483100495, 410.0: 0.013782554190914688, 729.0: 0.006046197499035739}</t>
+  </si>
+  <si>
+    <t>{772.0: 0.9882429784454605, 493.0: 0.011552824787393211, 108.0: 0.00020172983560795785, 144.0: 2.4669315383529704e-06}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
   </si>
   <si>
-    <t>{778.0: 0.9748082592125861, 171.0: 0.01962816851591652, 184.0: 0.0015491915919107113, 593.0: 0.0020408724394157638, 420.0: 0.0019731835966043188, 212.0: 3.1761157579610095e-07, 681.0: 7.031990608031754e-09}</t>
-  </si>
-  <si>
-    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934283424021336, 172.0: 5.113931650345672e-07}</t>
+    <t>{778.0: 0.9753594977972543, 171.0: 0.01913116741521325, 184.0: 0.0015373358112421688, 593.0: 0.0019984907361196625, 420.0: 0.0019731835966043188, 212.0: 3.176115757961011e-07, 681.0: 7.031990608031756e-09}</t>
+  </si>
+  <si>
+    <t>{781.0: 0.9996501457725947, 81.0: 0.00034934241636705996, 172.0: 5.118110381878884e-07}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -2458,13 +2455,13 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434099, 180.0: 0.03624987585658953}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9426331421214653, 246.0: 0.05736685787853456}</t>
+    <t>{789.0: 0.9426975115915951, 246.0: 0.05730248840840527}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
@@ -2473,46 +2470,46 @@
     <t>{833.0: 0.9940704167244313, 17.0: 0.004682700482551158, 918.0: 0.0012468827930174563}</t>
   </si>
   <si>
-    <t>{835.0: 0.9904058244467709, 836.0: 0.009594175553229308}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646832, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.7963103836559645, 486.0: 0.09037248577453545, 604.0: 0.09426570048531795, 980.0: 0.019051430084181874}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.9032978861255629, 19.0: 0.08895370913423661, 423.0: 0.007748404740200545}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9322033898305083, 686.0: 0.06779661016949153}</t>
-  </si>
-  <si>
-    <t>{848.0: 0.8022190532860046, 707.0: 0.004568879278325606, 634.0: 0.19321206743566993}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5086748084256288, 277.0: 0.4913251915743714}</t>
+    <t>{835.0: 0.9900669157761305, 836.0: 0.009933084223869343}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597998, 835.0: 0.0077484047402005445}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.79630082803911, 486.0: 0.09037248577453545, 604.0: 0.09427525610217233, 980.0: 0.019051430084181874}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9032978861255629, 19.0: 0.08895370913423661, 423.0: 0.007748404740200546}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9322033898305087, 686.0: 0.06779661016949153}</t>
+  </si>
+  <si>
+    <t>{848.0: 0.8022190532860042, 707.0: 0.004568879278325609, 634.0: 0.19321206743566993}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.1291184282474344, 277.0: 0.8708815717525658}</t>
   </si>
   <si>
     <t>{851.0: 0.923430321592649, 7.0: 0.07656967840735066}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290918, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.8487926071796247, 91.0: 0.0010063902516635884, 92.0: 1.8653491936383985e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08456065457257103, 307.0: 8.839720974269258e-05, 207.0: 0.002150977832567094}</t>
-  </si>
-  <si>
-    <t>{854.0: 0.8709557082323129, 976.0: 0.1290442917676874}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9947818696254723, 298.0: 0.005218130374527884}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947865}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410218, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8487926071796242, 91.0: 0.0010063902516635884, 92.0: 1.8653491936383985e-07, 202.0: 0.06321913531305247, 680.0: 0.00018165110585939898, 477.0: 0.08462716049435266, 307.0: 8.839720974269258e-05, 207.0: 0.002084471910785455}</t>
+  </si>
+  <si>
+    <t>{854.0: 0.8709467235310047, 976.0: 0.1290532764689954}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9947307303085412, 298.0: 0.005269269691458644}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947868}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.0007239000083155151, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.972273998136067, 10.0: 0.027726001863932894}</t>
@@ -2524,7 +2521,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.9991196024500587, 834.0: 0.0008803975499411181}</t>
+    <t>{887.0: 0.9991324078477681, 834.0: 0.0008675921522319135}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2542,13 +2539,10 @@
     <t>{905.0: 0.985476658916115, 499.0: 0.014523341083884813}</t>
   </si>
   <si>
-    <t>{861.0: 0.9908212213410217, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
-  </si>
-  <si>
     <t>{914.0: 0.9042779872152106, 110.0: 0.09572201278478937}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114126}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.22379367063927463}</t>
   </si>
   <si>
     <t>{534.0: 1.0}</t>
@@ -2560,7 +2554,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9939789262418464, 297.0: 0.006021073758153537}</t>
+    <t>{298.0: 0.9941104294478532, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{921.0: 0.8294810569070876, 686.0: 0.17051894309291252}</t>
@@ -2569,19 +2563,19 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.05790113999909883}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.22706767089552465, 922.0: 0.16918576018906858}</t>
+    <t>{141.0: 0.9421837681943135, 762.0: 0.05781623180568698}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.22706009789142137, 922.0: 0.1691665221754596}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{932.0: 0.9982325910215624, 108.0: 0.001746056647492274, 144.0: 2.1352330945336983e-05}</t>
-  </si>
-  <si>
-    <t>{249.0: 0.46032154495677496, 702.0: 0.5396784550432253}</t>
+    <t>{932.0: 0.9982325910215624, 108.0: 0.001746056647492273, 144.0: 2.1352330945336983e-05}</t>
+  </si>
+  <si>
+    <t>{249.0: 0.46002285695495404, 702.0: 0.5399771430450461}</t>
   </si>
   <si>
     <t>{934.0: 0.9685171068747108, 5.0: 0.03148289312528854}</t>
@@ -2590,25 +2584,25 @@
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9916176129471717, 171.0: 0.003293328528655217, 85.0: 0.0050890585241730275}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5155720569940877, 206.0: 0.48442794300591246}</t>
+    <t>{593.0: 0.9916176050004195, 171.0: 0.003293336475407618, 85.0: 0.0050890585241730275}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.5012622828305769, 206.0: 0.498737717169423}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.7305358356680625, 634.0: 0.10812454662003076, 848.0: 0.16042594361443505, 707.0: 0.0009136740974718651}</t>
-  </si>
-  <si>
-    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911526}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.954137587238285, 615.0: 0.04586241276171485}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.9005355776587601, 494.0: 0.09946442234123955}</t>
+    <t>{943.0: 0.7045586858250901, 634.0: 0.10993183872972913, 848.0: 0.184458926268521, 707.0: 0.001050549176659826}</t>
+  </si>
+  <si>
+    <t>{971.0: 0.9930875576036869, 975.0: 0.005883289646722212, 152.0: 0.0010291527495911524}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.9537688442211055, 615.0: 0.046231155778894494}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786259, 494.0: 0.09923664122137404}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -2617,7 +2611,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9504155918601318, 489.0: 0.04917254413384412, 935.0: 0.0004118640060240264}</t>
+    <t>{782.0: 0.9504155918601318, 489.0: 0.049174371686916435, 935.0: 0.00041003645295171326}</t>
   </si>
   <si>
     <t>{979.0: 0.9865097588978187, 561.0: 0.0134902411021814}</t>
@@ -2626,13 +2620,13 @@
     <t>{980.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.40451855836471207}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898867, 249.0: 0.007603186097031138, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112362}</t>
+    <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112356}</t>
   </si>
 </sst>
 </file>
@@ -4423,7 +4417,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4434,7 +4428,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4445,7 +4439,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4456,7 +4450,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4478,7 +4472,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4489,7 +4483,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -4500,7 +4494,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -4544,7 +4538,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -4599,7 +4593,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -4621,7 +4615,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -4632,12 +4626,12 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4648,7 +4642,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4659,40 +4653,40 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>614</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>640</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4703,106 +4697,106 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>642</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>160</v>
+        <v>643</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>645</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>646</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>165</v>
+        <v>625</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4813,7 +4807,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4824,7 +4818,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4835,106 +4829,106 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>647</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>650</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>652</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>177</v>
+        <v>651</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4945,51 +4939,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>653</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>654</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -5000,40 +4994,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>656</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>612</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -5044,106 +5038,106 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>657</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>657</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>659</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>659</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>661</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>661</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -5154,40 +5148,40 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>663</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>663</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -5198,161 +5192,161 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>665</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>665</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>667</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>207</v>
+        <v>667</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>669</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>615</v>
+        <v>669</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>671</v>
+        <v>615</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>671</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>673</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>672</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -5363,7 +5357,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -5391,7 +5385,7 @@
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -5402,7 +5396,7 @@
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>649</v>
+        <v>674</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -6711,7 +6705,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -7052,7 +7046,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -7074,7 +7068,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -7085,7 +7079,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -7096,7 +7090,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -7107,7 +7101,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -7129,7 +7123,7 @@
         <v>377</v>
       </c>
       <c r="C376" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -7140,7 +7134,7 @@
         <v>378</v>
       </c>
       <c r="C377" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -7173,7 +7167,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -7184,7 +7178,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -7206,7 +7200,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -7239,7 +7233,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7250,7 +7244,7 @@
         <v>388</v>
       </c>
       <c r="C387" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -7261,7 +7255,7 @@
         <v>389</v>
       </c>
       <c r="C388" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -7272,7 +7266,7 @@
         <v>390</v>
       </c>
       <c r="C389" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -7283,7 +7277,7 @@
         <v>391</v>
       </c>
       <c r="C390" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -7294,7 +7288,7 @@
         <v>392</v>
       </c>
       <c r="C391" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -7316,7 +7310,7 @@
         <v>394</v>
       </c>
       <c r="C393" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -7327,7 +7321,7 @@
         <v>395</v>
       </c>
       <c r="C394" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -7338,7 +7332,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -7360,7 +7354,7 @@
         <v>398</v>
       </c>
       <c r="C397" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -7371,7 +7365,7 @@
         <v>399</v>
       </c>
       <c r="C398" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -7382,7 +7376,7 @@
         <v>400</v>
       </c>
       <c r="C399" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -7404,7 +7398,7 @@
         <v>402</v>
       </c>
       <c r="C401" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -7415,7 +7409,7 @@
         <v>403</v>
       </c>
       <c r="C402" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -7437,7 +7431,7 @@
         <v>405</v>
       </c>
       <c r="C404" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -7459,7 +7453,7 @@
         <v>407</v>
       </c>
       <c r="C406" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -7470,7 +7464,7 @@
         <v>408</v>
       </c>
       <c r="C407" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -7492,7 +7486,7 @@
         <v>410</v>
       </c>
       <c r="C409" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -7503,7 +7497,7 @@
         <v>411</v>
       </c>
       <c r="C410" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -7525,7 +7519,7 @@
         <v>413</v>
       </c>
       <c r="C412" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -7536,7 +7530,7 @@
         <v>414</v>
       </c>
       <c r="C413" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -7558,7 +7552,7 @@
         <v>416</v>
       </c>
       <c r="C415" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -7569,7 +7563,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7591,7 +7585,7 @@
         <v>419</v>
       </c>
       <c r="C418" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -7602,7 +7596,7 @@
         <v>420</v>
       </c>
       <c r="C419" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -7613,7 +7607,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7646,7 +7640,7 @@
         <v>424</v>
       </c>
       <c r="C423" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -7668,7 +7662,7 @@
         <v>426</v>
       </c>
       <c r="C425" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -7701,7 +7695,7 @@
         <v>429</v>
       </c>
       <c r="C428" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -7745,7 +7739,7 @@
         <v>433</v>
       </c>
       <c r="C432" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -7756,7 +7750,7 @@
         <v>434</v>
       </c>
       <c r="C433" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -7767,7 +7761,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7778,7 +7772,7 @@
         <v>436</v>
       </c>
       <c r="C435" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -7833,7 +7827,7 @@
         <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7855,7 +7849,7 @@
         <v>443</v>
       </c>
       <c r="C442" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -7866,7 +7860,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7910,7 +7904,7 @@
         <v>448</v>
       </c>
       <c r="C447" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -7932,7 +7926,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7943,7 +7937,7 @@
         <v>451</v>
       </c>
       <c r="C450" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -7965,7 +7959,7 @@
         <v>453</v>
       </c>
       <c r="C452" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -7976,7 +7970,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7987,7 +7981,7 @@
         <v>455</v>
       </c>
       <c r="C454" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -7998,7 +7992,7 @@
         <v>456</v>
       </c>
       <c r="C455" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -8009,7 +8003,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -8031,7 +8025,7 @@
         <v>459</v>
       </c>
       <c r="C458" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -8042,7 +8036,7 @@
         <v>460</v>
       </c>
       <c r="C459" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -8064,7 +8058,7 @@
         <v>462</v>
       </c>
       <c r="C461" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -8075,7 +8069,7 @@
         <v>463</v>
       </c>
       <c r="C462" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -8086,7 +8080,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -8097,7 +8091,7 @@
         <v>465</v>
       </c>
       <c r="C464" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -8152,7 +8146,7 @@
         <v>470</v>
       </c>
       <c r="C469" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -8196,7 +8190,7 @@
         <v>474</v>
       </c>
       <c r="C473" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="474" spans="1:3">
@@ -8218,7 +8212,7 @@
         <v>476</v>
       </c>
       <c r="C475" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -8229,7 +8223,7 @@
         <v>477</v>
       </c>
       <c r="C476" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -8240,7 +8234,7 @@
         <v>478</v>
       </c>
       <c r="C477" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -8251,7 +8245,7 @@
         <v>479</v>
       </c>
       <c r="C478" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -8262,7 +8256,7 @@
         <v>480</v>
       </c>
       <c r="C479" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -8295,7 +8289,7 @@
         <v>483</v>
       </c>
       <c r="C482" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -8306,7 +8300,7 @@
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -8339,7 +8333,7 @@
         <v>487</v>
       </c>
       <c r="C486" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -8350,7 +8344,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -8361,7 +8355,7 @@
         <v>489</v>
       </c>
       <c r="C488" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -8383,7 +8377,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -8394,7 +8388,7 @@
         <v>492</v>
       </c>
       <c r="C491" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -8405,7 +8399,7 @@
         <v>493</v>
       </c>
       <c r="C492" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -8460,7 +8454,7 @@
         <v>498</v>
       </c>
       <c r="C497" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -8482,7 +8476,7 @@
         <v>500</v>
       </c>
       <c r="C499" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -8493,7 +8487,7 @@
         <v>501</v>
       </c>
       <c r="C500" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -8504,7 +8498,7 @@
         <v>502</v>
       </c>
       <c r="C501" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -8526,7 +8520,7 @@
         <v>504</v>
       </c>
       <c r="C503" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -8537,7 +8531,7 @@
         <v>505</v>
       </c>
       <c r="C504" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -8559,7 +8553,7 @@
         <v>507</v>
       </c>
       <c r="C506" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -8581,7 +8575,7 @@
         <v>509</v>
       </c>
       <c r="C508" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -8592,7 +8586,7 @@
         <v>510</v>
       </c>
       <c r="C509" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -8603,7 +8597,7 @@
         <v>511</v>
       </c>
       <c r="C510" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -8614,7 +8608,7 @@
         <v>512</v>
       </c>
       <c r="C511" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -8625,7 +8619,7 @@
         <v>513</v>
       </c>
       <c r="C512" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -8636,7 +8630,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -8658,7 +8652,7 @@
         <v>516</v>
       </c>
       <c r="C515" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -8669,7 +8663,7 @@
         <v>517</v>
       </c>
       <c r="C516" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -8702,7 +8696,7 @@
         <v>520</v>
       </c>
       <c r="C519" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -8735,7 +8729,7 @@
         <v>523</v>
       </c>
       <c r="C522" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -8746,7 +8740,7 @@
         <v>524</v>
       </c>
       <c r="C523" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -8757,7 +8751,7 @@
         <v>525</v>
       </c>
       <c r="C524" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -8768,7 +8762,7 @@
         <v>526</v>
       </c>
       <c r="C525" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -8779,7 +8773,7 @@
         <v>527</v>
       </c>
       <c r="C526" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -8790,7 +8784,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8812,7 +8806,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8823,7 +8817,7 @@
         <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -8845,7 +8839,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8856,7 +8850,7 @@
         <v>534</v>
       </c>
       <c r="C533" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -8878,7 +8872,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8889,7 +8883,7 @@
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -8900,7 +8894,7 @@
         <v>538</v>
       </c>
       <c r="C537" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -8922,7 +8916,7 @@
         <v>540</v>
       </c>
       <c r="C539" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -8933,7 +8927,7 @@
         <v>541</v>
       </c>
       <c r="C540" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -8955,7 +8949,7 @@
         <v>543</v>
       </c>
       <c r="C542" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -8966,7 +8960,7 @@
         <v>544</v>
       </c>
       <c r="C543" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -8977,7 +8971,7 @@
         <v>545</v>
       </c>
       <c r="C544" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -8988,7 +8982,7 @@
         <v>546</v>
       </c>
       <c r="C545" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -8999,7 +8993,7 @@
         <v>547</v>
       </c>
       <c r="C546" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -9010,7 +9004,7 @@
         <v>548</v>
       </c>
       <c r="C547" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="548" spans="1:3">
@@ -9021,7 +9015,7 @@
         <v>549</v>
       </c>
       <c r="C548" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -9032,7 +9026,7 @@
         <v>550</v>
       </c>
       <c r="C549" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="550" spans="1:3">
